--- a/BaseCore/erd/역할메뉴정리.xlsx
+++ b/BaseCore/erd/역할메뉴정리.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>대시보드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,58 @@
   </si>
   <si>
     <t>/common/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money//benefit/active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money//benefit/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money//benefit/exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money//benefit/history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money/payer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money/payer/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money/payer/payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/money/payer/calhistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수해자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +451,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -692,7 +750,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.5" bestFit="1" customWidth="1"/>
@@ -728,7 +786,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="1"/>
@@ -749,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -772,7 +830,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,7 +853,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -820,281 +878,239 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>7000</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>7900</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7910</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7920</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <v>8000</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="13"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>8010</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>8020</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>8030</v>
-      </c>
-      <c r="F14" s="1">
-        <v>3</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>8040</v>
+        <v>7000</v>
       </c>
       <c r="F15" s="1">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <v>9000</v>
+        <v>7900</v>
       </c>
       <c r="F16" s="1">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E17" s="1">
-        <v>9010</v>
+        <v>7910</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="1">
-        <v>9020</v>
+        <v>7920</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>9030</v>
+        <v>8000</v>
       </c>
       <c r="F19" s="1">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>9040</v>
+        <v>8010</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1102,20 +1118,20 @@
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1">
-        <v>9050</v>
+        <v>8020</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1123,20 +1139,20 @@
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>9060</v>
+        <v>8030</v>
       </c>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1144,32 +1160,199 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>9070</v>
+        <v>8040</v>
       </c>
       <c r="F23" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <v>9010</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>9020</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>9030</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>9040</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <v>9050</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>9060</v>
+      </c>
+      <c r="F30" s="1">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>9070</v>
+      </c>
+      <c r="F31" s="1">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="H3:H6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
